--- a/medicine/Sexualité et sexologie/Rolf_Gindorf/Rolf_Gindorf.xlsx
+++ b/medicine/Sexualité et sexologie/Rolf_Gindorf/Rolf_Gindorf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dr. Rolf Gindorf (né le 14 mai 1939 à Cologne) est un sexologue allemand avec plus de 60 publications[1].
-De 1971 à 1979, il est président de la Deutsche Gesellschaft für Sozialwissenschaftliche Sexualforschung et est remplacé par le docteur Helmut Kentler[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dr. Rolf Gindorf (né le 14 mai 1939 à Cologne) est un sexologue allemand avec plus de 60 publications.
+De 1971 à 1979, il est président de la Deutsche Gesellschaft für Sozialwissenschaftliche Sexualforschung et est remplacé par le docteur Helmut Kentler.
 En 2004 il fut honoré avec la Médaille Magnus Hirschfeld pour la Réforme Sexuelle.
 </t>
         </is>
